--- a/biology/Botanique/Delphinium_fissum/Delphinium_fissum.xlsx
+++ b/biology/Botanique/Delphinium_fissum/Delphinium_fissum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Delphinium fissum
 La Dauphinelle fendue ou Pied d'alouette fendu (Delphinium fissum) est une espèce de plante herbacée de la famille des Renonculacées. Elle fleurit en juin/juillet en Provence en altitude, en Basse Provence elle se rencontre à l'ubac frais et humide de la Sainte-Baume, entre 900 et 1 100 m, et aussi au mont Aurélien, à la base de la falaise aux alentours de 800 m.
-Elle fut décrite pour la première fois en latin par Franz de Paula Adam von Waldstein et Pál Kitaibel en 1801-1802 dans le premier volume de leur ouvrage “Descriptiones et icones plantarum rariorum Hungariae “(M.A. Schmidt, Vienne, trois volumes, 1802-1812) en page 83[1]. La planche 81 en donne une représentation assez fidèle.
+Elle fut décrite pour la première fois en latin par Franz de Paula Adam von Waldstein et Pál Kitaibel en 1801-1802 dans le premier volume de leur ouvrage “Descriptiones et icones plantarum rariorum Hungariae “(M.A. Schmidt, Vienne, trois volumes, 1802-1812) en page 83. La planche 81 en donne une représentation assez fidèle.
 Cette plante est protégée en France, rare et à respecter. Son statut de conservation selon l'UICN est : « en danger critique d'extinction ».
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[2] 23 août 2012 :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List" 23 août 2012 :
 Delphinastrum fissum (Waldst. &amp; Kit.) Spach, 1838
 Delphinium fissum subsp. pallasii (Nevski) Greuter &amp; Burdet, 1989
 Delphinium leiocarpum Huth, 1873
@@ -552,9 +566,11 @@
           <t>Sous-espèces et leurs synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[2] 23 août 2012 :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List" 23 août 2012 :
 Delphinium fissum subsp. anatolicum Chowdhuri &amp; P.H., 1958
 Delphinium amani Post, 1895
 Delphinium fissum subsp. caseyi (Burtt) C.Blanché &amp; Molero, 1983
